--- a/src/Section Properties ITERATION002B.xlsx
+++ b/src/Section Properties ITERATION002B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE33D32-8B5F-4F19-BCB0-501173FA5C36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031332F-40CA-4014-942C-C50D4D39DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="2556" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -863,43 +863,43 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16:BB16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1076,23 +1076,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.51153482384588145</v>
+        <v>0.57809289458106339</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.37867722872195997</v>
+        <v>-0.37290489942932847</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>6.1328408439149287E-2</v>
+        <v>7.8326108148073226E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>3.36085414576274E-2</v>
+        <v>3.259173375431193E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.539998191142211E-2</v>
+        <v>-5.0525079542475197E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1115,23 +1115,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.30366493770405478</v>
+        <v>0.59507590984232028</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.52909833019267838</v>
+        <v>-0.50382536070771966</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>2.1612279935345501E-2</v>
+        <v>8.2995782454999681E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>6.5612119456097004E-2</v>
+        <v>5.9493748615374334E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-3.7656705814987292E-2</v>
+        <v>-7.0268984747995658E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.49632277127804</v>
+        <v>1.5020951005706715</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>4.3384466129089867E-2</v>
+        <v>4.2604373846897726E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>2.7652931697838951E-3</v>
+        <v>1.0591689741039804E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-4.8012299914108793E-3</v>
+        <v>-8.9592955553694474E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1258,23 +1258,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.51971517615411855</v>
+        <v>-0.45315710541893661</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.37867722872195997</v>
+        <v>-0.37290489942932847</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>6.5517805873668178E-2</v>
+        <v>4.9811100324663106E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>3.4782991258313689E-2</v>
+        <v>3.3730651230395529E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>4.7737880859624396E-2</v>
+        <v>4.0989765215885945E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1297,23 +1297,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.72758506229594522</v>
+        <v>-0.43617409015767972</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.52909833019267838</v>
+        <v>-0.50382536070771966</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>0.12840918681000266</v>
+        <v>4.6147510250115951E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>6.7904933641888737E-2</v>
+        <v>6.1572756456029935E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>9.3378891133607533E-2</v>
+        <v>5.3305059888180739E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1339,27 +1339,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.4802848238458815</v>
+        <v>-0.54684289458106339</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.49632277127804</v>
+        <v>-1.5020951005706715</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.1251887514213021</v>
+        <v>1.112139042904861</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.52789655268415547</v>
+        <v>0.47503825780201003</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.11147168493753509</v>
+        <v>-0.18888425992215091</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.58155732645148139</v>
+        <v>0.49263132972878138</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.37867722872195997</v>
+        <v>-0.37290489942932847</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1394,18 +1394,18 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>1.1244533633293832E-2</v>
+        <v>1.0437181042096835E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>5.2615496073804807E-2</v>
+        <v>4.2127132312419248E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>2.2436066592737801E-3</v>
+        <v>-2.8658068245181363E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1445,23 +1445,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.2697151761541185</v>
+        <v>-0.20315710541893661</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.43382277127804</v>
+        <v>1.4395951005706715</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>1.3639926796471344E-2</v>
+        <v>7.7386517779126736E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.38547145114414472</v>
+        <v>0.38858138504757783</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-7.2510705249195548E-2</v>
+        <v>-5.4836995051353858E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1484,23 +1484,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.47758506229594522</v>
+        <v>-0.18617409015767972</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.2834016698073216</v>
+        <v>1.3086746392922803</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>4.2766404699041603E-2</v>
+        <v>6.4988984711324728E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.3088349711370415</v>
+        <v>0.32111799591127127</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-0.11492502495480934</v>
+        <v>-4.5682745678000625E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1575,18 +1575,18 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>2.3953631161558218E-2</v>
+        <v>2.4905565581561023E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>5.1308026141757244E-3</v>
+        <v>2.3200708815127665E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-8.9066894339977238E-3</v>
+        <v>-3.5404127900450482E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,23 +1626,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.2302848238458815</v>
+        <v>0.29684289458106339</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1911772287219602</v>
+        <v>-2.1854048994293285</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>3.3144437558580422E-3</v>
+        <v>5.5072315039540196E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.30007860297935307</v>
+        <v>0.29849966090310709</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.1537178883208963E-2</v>
+        <v>-4.0545119761139975E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>2.2414937704054783E-2</v>
+        <v>0.31382590984232028</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.3415983301926784</v>
+        <v>-2.3163253607077197</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>3.1401839517291045E-5</v>
+        <v>6.1554188555225089E-3</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.34269267124757125</v>
+        <v>0.33533519854110921</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.2804237936992242E-3</v>
+        <v>-4.5432682113433799E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.27241493770405478</v>
+        <v>-0.56382590984232028</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.3459016698073216</v>
+        <v>-1.3711746392922803</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.14019346369208396</v>
+        <v>0.13351606175552308</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>9.3815098342061892E-2</v>
+        <v>6.9392724110820758E-2</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>1.681432718787548E-2</v>
+        <v>-2.2676968963719037E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>1.2869541984406211E-2</v>
+        <v>8.7507983163828424E-3</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,18 +1758,18 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>2.6564988987832602E-2</v>
+        <v>2.5994784853081796E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.0334510089592339E-4</v>
+        <v>5.7795641963632777E-4</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-2.5423284401168987E-4</v>
+        <v>-3.5210328637911193E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.125</v>
       </c>
       <c r="E6" s="5">
-        <v>6.25E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H6">
         <f>((1/8)^4)/12</f>
@@ -1808,23 +1808,23 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.60528482384588145</v>
+        <v>0.67184289458106339</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.55882277127804</v>
+        <v>1.4395951005706715</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>5.7245268434084331E-3</v>
+        <v>7.0527011718603417E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>3.7967631753983572E-2</v>
+        <v>3.2381782087298153E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>1.4742683851874643E-2</v>
+        <v>1.5112214678001829E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1843,27 +1843,27 @@
       </c>
       <c r="T6">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.39741493770405478</v>
+        <v>0.68882590984232028</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>1.4084016698073216</v>
+        <v>1.3086746392922803</v>
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>2.4677911360987148E-3</v>
+        <v>7.4137677198453178E-3</v>
       </c>
       <c r="X6">
         <f t="shared" si="14"/>
-        <v>3.099367599243831E-2</v>
+        <v>2.6759832992605939E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="15"/>
-        <v>8.7456228416994287E-3</v>
+        <v>1.4085140610907427E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1919,18 +1919,18 @@
       </c>
       <c r="AZ6">
         <f t="shared" si="17"/>
-        <v>1.7522921890154728E-2</v>
+        <v>1.5130800595249436E-2</v>
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>1.4057969463228571E-3</v>
+        <v>4.2002737161396875E-3</v>
       </c>
       <c r="BB6">
         <f t="shared" si="19"/>
-        <v>4.9412769055601768E-3</v>
+        <v>7.9581044451626955E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.60528482384588145</v>
+        <v>0.67184289458106339</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>5.7245268434084331E-3</v>
+        <v>7.0527011718603417E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.39741493770405478</v>
+        <v>0.68882590984232028</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>2.4677911360987148E-3</v>
+        <v>7.4137677198453178E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>1.4057969463228571E-3</v>
+        <v>4.2002737161396875E-3</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.60528482384588145</v>
+        <v>0.67184289458106339</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>5.7245268434084331E-3</v>
+        <v>7.0527011718603417E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.39741493770405478</v>
+        <v>0.68882590984232028</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>2.4677911360987148E-3</v>
+        <v>7.4137677198453178E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>1.4057969463228571E-3</v>
+        <v>4.2002737161396875E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.60528482384588145</v>
+        <v>0.67184289458106339</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>5.7245268434084331E-3</v>
+        <v>7.0527011718603417E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.39741493770405478</v>
+        <v>0.68882590984232028</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>2.4677911360987148E-3</v>
+        <v>7.4137677198453178E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>1.4057969463228571E-3</v>
+        <v>4.2002737161396875E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.60528482384588145</v>
+        <v>0.67184289458106339</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>5.7245268434084331E-3</v>
+        <v>7.0527011718603417E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.39741493770405478</v>
+        <v>0.68882590984232028</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>2.4677911360987148E-3</v>
+        <v>7.4137677198453178E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>1.4057969463228571E-3</v>
+        <v>4.2002737161396875E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2610,20 +2610,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E11" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+      <c r="D11">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E11">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>2.5390625E-2</v>
+        <v>-2.5073053934374999E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.4468361718750001E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="22"/>
@@ -2638,23 +2639,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.1052848238458814</v>
+        <v>-1.0578325572189367</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.55882277127804</v>
+        <v>1.4094975855706715</v>
       </c>
       <c r="M11">
         <f>C11*K11^2</f>
-        <v>6.9253502961184127E-2</v>
+        <v>1.7484526861130546E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>3.7967631753983572E-2</v>
+        <v>3.1041928808274256E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>5.1277592553703705E-2</v>
+        <v>-2.3297069302158444E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2669,31 +2670,31 @@
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
-        <v>1.4345703124999998E-2</v>
+        <v>-1.4166275472921873E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-8.1746243710937498E-4</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>1.8974149377040548</v>
+        <v>-1.0408495419576798</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.4084016698073216</v>
+        <v>1.2785771242922803</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>5.6252866340976281E-2</v>
+        <v>1.6927621390523621E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>3.099367599243831E-2</v>
+        <v>2.5543116605679955E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>4.1755036977808531E-2</v>
+        <v>-2.0793850221518553E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2758,18 +2759,18 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>1.7522921890154728E-2</v>
+        <v>1.4443355836636257E-2</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>3.1794364437078677E-2</v>
+        <v>9.5756010400729272E-3</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>2.3591595892461816E-2</v>
+        <v>-1.174852537515798E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3421,11 +3422,11 @@
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F6,F11)</f>
-        <v>-0.36414726087906291</v>
+        <v>-0.41461093981343788</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ref="G16:J16" si="23">SUM(G2:G6,G11)</f>
-        <v>-1.1344973055544929</v>
+        <v>-1.1388738292263678</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="23"/>
@@ -3441,15 +3442,15 @@
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M6,M11)</f>
-        <v>0.21877861466973941</v>
+        <v>0.16592031978759392</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(N2:N6,N11)</f>
-        <v>0.82987685034740599</v>
+        <v>0.81682714183096483</v>
       </c>
       <c r="O16" s="2">
         <f>SUM(O2:O6,O11)</f>
-        <v>-3.5689708778623874E-2</v>
+        <v>-0.11310228376323969</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R6,R11)</f>
@@ -3457,38 +3458,38 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" ref="S16:T16" si="24">SUM(S2:S6,S11)</f>
-        <v>-2.6653385137080515E-2</v>
+        <v>-5.5165363735002387E-2</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="24"/>
-        <v>-0.13168453927069784</v>
+        <v>-0.1341572751453072</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W6,W11)</f>
-        <v>0.25153993076098208</v>
+        <v>0.16613899914213953</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" ref="X16:Y16" si="25">SUM(X2:X6,X11)</f>
-        <v>0.84703204746747507</v>
+        <v>0.82982264912207071</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="25"/>
-        <v>-1.1982603610380366E-2</v>
+        <v>-0.11478806226186047</v>
       </c>
       <c r="AZ16" s="2">
         <f>SUM(AZ2:AZ6,AZ11)</f>
-        <v>0.14019346369208396</v>
+        <v>0.13351606175552308</v>
       </c>
       <c r="BA16" s="2">
         <f t="shared" ref="BA16:BB16" si="26">SUM(BA2:BA6,BA11)</f>
-        <v>9.3815098342061892E-2</v>
+        <v>6.9392724110820758E-2</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="26"/>
-        <v>1.681432718787548E-2</v>
+        <v>-2.2676968963719037E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3496,13 +3497,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3520,7 +3521,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
